--- a/8DIO/Claire Woodwinds/Claire Piccolo Flute Virtuoso/xlsx/Claire Piccolo Flute Virtuoso.xlsx
+++ b/8DIO/Claire Woodwinds/Claire Piccolo Flute Virtuoso/xlsx/Claire Piccolo Flute Virtuoso.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21555" windowHeight="10530" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21555" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="Piccolo Arcs" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,6 +68,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -75,6 +105,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,6 +148,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -128,6 +188,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -144,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="175">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -667,13 +742,31 @@
   </si>
   <si>
     <t>STRONG</t>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>Piccolo Arcs</t>
+  </si>
+  <si>
+    <t>Piccolo Bonus FX Runs</t>
+  </si>
+  <si>
+    <t>Piccolo Leg Lyrical</t>
+  </si>
+  <si>
+    <t>Piccolo Leg Strong</t>
+  </si>
+  <si>
+    <t>Piccolo General Arts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,8 +813,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +867,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,6 +996,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,13 +1304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1213,95 +1325,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1309,25 +1382,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1336,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -1347,13 +1416,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1362,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -1373,13 +1442,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1388,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -1398,14 +1467,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>165</v>
+      <c r="A8" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>165</v>
+      <c r="C8" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1414,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -1424,14 +1493,14 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>166</v>
+      <c r="A9" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>166</v>
+      <c r="C9" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1440,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6">
         <v>120</v>
@@ -1450,25 +1519,53 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
@@ -1476,7 +1573,7 @@
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
       <c r="F12" s="2"/>
@@ -1488,7 +1585,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -2877,17 +2974,44 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -2902,19 +3026,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2924,13 +3048,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2945,95 +3069,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -3041,25 +3126,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -3068,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -3079,13 +3160,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -3094,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -3105,13 +3186,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -3120,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -3130,14 +3211,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>150</v>
+      <c r="A8" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>150</v>
+      <c r="C8" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -3146,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -3156,25 +3237,53 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6">
+        <v>120</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
@@ -3194,7 +3303,7 @@
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
       <c r="F12" s="2"/>
@@ -3206,7 +3315,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -4595,18 +4704,45 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4620,19 +4756,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4642,13 +4778,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4663,95 +4799,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -4759,25 +4856,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -4786,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -4797,13 +4890,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -4812,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -4823,13 +4916,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -4838,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -4848,14 +4941,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>159</v>
+      <c r="A8" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>159</v>
+      <c r="C8" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -4864,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -4874,14 +4967,14 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>151</v>
+      <c r="A9" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>151</v>
+      <c r="C9" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -4890,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6">
         <v>120</v>
@@ -4901,13 +4994,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -4916,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6">
         <v>120</v>
@@ -4926,25 +5019,53 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6">
+        <v>120</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
@@ -4952,7 +5073,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -6341,18 +6462,45 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6366,19 +6514,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6388,13 +6536,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6409,95 +6557,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -6505,25 +6614,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -6532,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -6543,13 +6648,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -6558,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -6569,13 +6674,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -6584,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -6594,14 +6699,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>159</v>
+      <c r="A8" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>159</v>
+      <c r="C8" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -6610,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -6620,14 +6725,14 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>151</v>
+      <c r="A9" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>151</v>
+      <c r="C9" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -6636,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6">
         <v>120</v>
@@ -6647,13 +6752,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -6662,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6">
         <v>120</v>
@@ -6672,25 +6777,53 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6">
+        <v>120</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
@@ -6698,7 +6831,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -8087,17 +8220,44 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -8112,19 +8272,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8134,13 +8294,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8155,95 +8315,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -8251,25 +8372,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -8278,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -8289,13 +8406,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -8304,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -8315,13 +8432,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -8330,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -8340,14 +8457,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>155</v>
+      <c r="A8" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>155</v>
+      <c r="C8" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -8356,7 +8473,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -8366,25 +8483,53 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6">
+        <v>120</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
@@ -8404,7 +8549,7 @@
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
       <c r="F12" s="2"/>
@@ -8416,7 +8561,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -9805,17 +9950,44 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -9830,19 +10002,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
